--- a/avgs by season.xlsx
+++ b/avgs by season.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Desktop/BBallStats/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="24580" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="baa nba" sheetId="3" r:id="rId1"/>
@@ -959,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-728562096"/>
-        <c:axId val="-728559696"/>
+        <c:axId val="-774960736"/>
+        <c:axId val="-774959376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-728562096"/>
+        <c:axId val="-774960736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -1022,12 +1022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728559696"/>
+        <c:crossAx val="-774959376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-728559696"/>
+        <c:axId val="-774959376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="88.0"/>
@@ -1048,6 +1048,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1084,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728562096"/>
+        <c:crossAx val="-774960736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1514,11 +1515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-726271600"/>
-        <c:axId val="-775553312"/>
+        <c:axId val="-775477200"/>
+        <c:axId val="-857865328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-726271600"/>
+        <c:axId val="-775477200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -1577,12 +1578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775553312"/>
+        <c:crossAx val="-857865328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-775553312"/>
+        <c:axId val="-857865328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-726271600"/>
+        <c:crossAx val="-775477200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1684,6 +1685,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -2224,11 +2226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-723934304"/>
-        <c:axId val="-728883568"/>
+        <c:axId val="-702885216"/>
+        <c:axId val="-702883168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-723934304"/>
+        <c:axId val="-702885216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2250,6 +2252,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2286,12 +2289,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-728883568"/>
+        <c:crossAx val="-702883168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-728883568"/>
+        <c:axId val="-702883168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.56"/>
@@ -2350,7 +2353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-723934304"/>
+        <c:crossAx val="-702885216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2937,11 +2940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-773710976"/>
-        <c:axId val="-773726240"/>
+        <c:axId val="-775888288"/>
+        <c:axId val="-775677920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-773710976"/>
+        <c:axId val="-775888288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2999,12 +3002,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773726240"/>
+        <c:crossAx val="-775677920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-773726240"/>
+        <c:axId val="-775677920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75.0"/>
@@ -3063,7 +3066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773710976"/>
+        <c:crossAx val="-775888288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3109,6 +3112,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -3479,11 +3483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-778503680"/>
-        <c:axId val="-778402688"/>
+        <c:axId val="-702912592"/>
+        <c:axId val="-702902000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-778503680"/>
+        <c:axId val="-702912592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="118.0"/>
@@ -3541,12 +3545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778402688"/>
+        <c:crossAx val="-702902000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-778402688"/>
+        <c:axId val="-702902000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.24"/>
@@ -3604,7 +3608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778503680"/>
+        <c:crossAx val="-702912592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4191,11 +4195,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-778573472"/>
-        <c:axId val="-778571424"/>
+        <c:axId val="-703340752"/>
+        <c:axId val="-703338704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-778573472"/>
+        <c:axId val="-703340752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4253,12 +4257,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778571424"/>
+        <c:crossAx val="-703338704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-778571424"/>
+        <c:axId val="-703338704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85.0"/>
@@ -4315,7 +4319,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778573472"/>
+        <c:crossAx val="-703340752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4764,11 +4768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-857945904"/>
-        <c:axId val="-857778784"/>
+        <c:axId val="-703185552"/>
+        <c:axId val="-703183104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-857945904"/>
+        <c:axId val="-703185552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4826,12 +4830,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857778784"/>
+        <c:crossAx val="-703183104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-857778784"/>
+        <c:axId val="-703183104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -4890,7 +4894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857945904"/>
+        <c:crossAx val="-703185552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4936,6 +4940,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -5476,11 +5481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-857919056"/>
-        <c:axId val="-857873072"/>
+        <c:axId val="-778507840"/>
+        <c:axId val="-778505792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-857919056"/>
+        <c:axId val="-778507840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5538,12 +5543,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857873072"/>
+        <c:crossAx val="-778505792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-857873072"/>
+        <c:axId val="-778505792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -5601,7 +5606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857919056"/>
+        <c:crossAx val="-778507840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6049,11 +6054,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-772010992"/>
-        <c:axId val="-857838768"/>
+        <c:axId val="-702799840"/>
+        <c:axId val="-702797792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-772010992"/>
+        <c:axId val="-702799840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -6111,12 +6116,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857838768"/>
+        <c:crossAx val="-702797792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-857838768"/>
+        <c:axId val="-702797792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -6175,7 +6180,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772010992"/>
+        <c:crossAx val="-702799840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6221,6 +6226,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -6497,11 +6503,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-772637440"/>
-        <c:axId val="-772507520"/>
+        <c:axId val="-702829744"/>
+        <c:axId val="-702827424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-772637440"/>
+        <c:axId val="-702829744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,12 +6564,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772507520"/>
+        <c:crossAx val="-702827424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-772507520"/>
+        <c:axId val="-702827424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6619,7 +6625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772637440"/>
+        <c:crossAx val="-702829744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6665,6 +6671,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -12388,10 +12395,10 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12400,8 +12407,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="18186400"/>
-          <a:ext cx="4508500" cy="1676400"/>
+          <a:off x="8420100" y="17983200"/>
+          <a:ext cx="5346700" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12441,7 +12448,31 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1400" baseline="0"/>
-            <a:t> from 95 to 97 and the lockout year in 99, there is a strong trendline showing a consistent decrease from 1993-2004. This is after other NBA teams copied the Pistons and played harder defense with more hand checking. It's no surprise that after the removal of hand check in 2004, there is a massive spike in offensive rating.</a:t>
+            <a:t> from 95 to 97 and the lockout year in 99, there is a strong trendline showing a small, but consistent decrease from 1984-2004. This is as NBA teams copied the Pistons and played harder defense with more hand checking. It's no surprise that after the removal of hand check in 2004, there is a massive spike in offensive rating. Also, you may have been told hand check was removed in 1979. "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Clarification added to prohibit hand-checking through “rigid enforcement” of rule allowing a defensive player to retain contact with his opponent so long as he does not impede his opponent’s progress." Perhaps this explains the sizable jump there too! The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3pt line, which wasn't used much, was added the year after, and the merger was in 1976, so it's neither of those. Must be hand check!</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400"/>
         </a:p>
@@ -12513,14 +12544,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12542,15 +12573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12833,6 +12864,165 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.33444</cdr:x>
+      <cdr:y>0.19444</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93378</cdr:x>
+      <cdr:y>0.58796</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1282700" y="533400"/>
+          <a:ext cx="2298705" cy="1079500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Moreso a rough graph of pace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> than anything else, but also that rebounds have gone up as FG% goes down with more threes while TS% remains the same. But the point is 60s/ early 70s rebound stats are inflated.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.57778</cdr:x>
       <cdr:y>0.60648</cdr:y>
     </cdr:from>
@@ -12988,12 +13178,12 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.57778</cdr:x>
-      <cdr:y>0.61111</cdr:y>
+      <cdr:x>0.45</cdr:x>
+      <cdr:y>0.42824</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.94167</cdr:x>
@@ -13006,8 +13196,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2641600" y="1676400"/>
-          <a:ext cx="1663700" cy="749300"/>
+          <a:off x="2057400" y="1174750"/>
+          <a:ext cx="2247915" cy="1250953"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -13138,7 +13328,643 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout</a:t>
+            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. Different from TS% because ORB% has gone down over time. So when comparing players efficiency across eras, using TS% is more accurate than ORTG.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.07973</cdr:x>
+      <cdr:y>0.61111</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.59801</cdr:x>
+      <cdr:y>0.88426</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="304800" y="1676400"/>
+          <a:ext cx="1981200" cy="749305"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Explanations for this one would be nice. Rule changes? Priority changes (get back on D to stop transition</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> threes)?</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.58056</cdr:x>
+      <cdr:y>0.18519</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.94445</cdr:x>
+      <cdr:y>0.45834</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2654300" y="508000"/>
+          <a:ext cx="1663705" cy="749305"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>More proof</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> of a huge drop post hand check, but not sure about the rest of the trends.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49722</cdr:x>
+      <cdr:y>0.61111</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93889</cdr:x>
+      <cdr:y>0.88426</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2273300" y="1676400"/>
+          <a:ext cx="2019305" cy="749305"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>As the 3pt% graph shows, raw % hasn't change much, but</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> taking more threes means more spacing, so 2pt and ts% go up.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08333</cdr:x>
+      <cdr:y>0.61111</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.39028</cdr:x>
+      <cdr:y>0.88426</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="381001" y="1676400"/>
+          <a:ext cx="1403350" cy="749305"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>This graph is actually pretty garbage,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> as year is a confounding AF variable.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -13421,7 +14247,7 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF111" sqref="AF111"/>
+      <selection activeCell="AF82" sqref="AF82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/avgs by season.xlsx
+++ b/avgs by season.xlsx
@@ -959,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-774960736"/>
-        <c:axId val="-774959376"/>
+        <c:axId val="-724197680"/>
+        <c:axId val="-723613264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-774960736"/>
+        <c:axId val="-724197680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -1022,12 +1022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-774959376"/>
+        <c:crossAx val="-723613264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-774959376"/>
+        <c:axId val="-723613264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="88.0"/>
@@ -1085,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-774960736"/>
+        <c:crossAx val="-724197680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1515,11 +1515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-775477200"/>
-        <c:axId val="-857865328"/>
+        <c:axId val="-723626912"/>
+        <c:axId val="-778824048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-775477200"/>
+        <c:axId val="-723626912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -1578,12 +1578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-857865328"/>
+        <c:crossAx val="-778824048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-857865328"/>
+        <c:axId val="-778824048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775477200"/>
+        <c:crossAx val="-723626912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2226,11 +2226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-702885216"/>
-        <c:axId val="-702883168"/>
+        <c:axId val="-700019952"/>
+        <c:axId val="-700193760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-702885216"/>
+        <c:axId val="-700019952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2289,12 +2289,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702883168"/>
+        <c:crossAx val="-700193760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-702883168"/>
+        <c:axId val="-700193760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.56"/>
@@ -2353,7 +2353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702885216"/>
+        <c:crossAx val="-700019952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2940,11 +2940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-775888288"/>
-        <c:axId val="-775677920"/>
+        <c:axId val="-699902736"/>
+        <c:axId val="-699900688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-775888288"/>
+        <c:axId val="-699902736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2966,6 +2966,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3002,12 +3003,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775677920"/>
+        <c:crossAx val="-699900688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-775677920"/>
+        <c:axId val="-699900688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75.0"/>
@@ -3066,7 +3067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-775888288"/>
+        <c:crossAx val="-699902736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3483,11 +3484,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-702912592"/>
-        <c:axId val="-702902000"/>
+        <c:axId val="-700339904"/>
+        <c:axId val="-700392080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-702912592"/>
+        <c:axId val="-700339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="118.0"/>
@@ -3545,12 +3546,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702902000"/>
+        <c:crossAx val="-700392080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-702902000"/>
+        <c:axId val="-700392080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.24"/>
@@ -3608,7 +3609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702912592"/>
+        <c:crossAx val="-700339904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4195,11 +4196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-703340752"/>
-        <c:axId val="-703338704"/>
+        <c:axId val="-772948912"/>
+        <c:axId val="-772946864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-703340752"/>
+        <c:axId val="-772948912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4257,12 +4258,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-703338704"/>
+        <c:crossAx val="-772946864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-703338704"/>
+        <c:axId val="-772946864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85.0"/>
@@ -4319,7 +4320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-703340752"/>
+        <c:crossAx val="-772948912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4768,11 +4769,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-703185552"/>
-        <c:axId val="-703183104"/>
+        <c:axId val="-773181344"/>
+        <c:axId val="-773179296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-703185552"/>
+        <c:axId val="-773181344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4794,6 +4795,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4830,12 +4832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-703183104"/>
+        <c:crossAx val="-773179296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-703183104"/>
+        <c:axId val="-773179296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -4894,7 +4896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-703185552"/>
+        <c:crossAx val="-773181344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5481,11 +5483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-778507840"/>
-        <c:axId val="-778505792"/>
+        <c:axId val="-700374496"/>
+        <c:axId val="-700372448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-778507840"/>
+        <c:axId val="-700374496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5543,12 +5545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778505792"/>
+        <c:crossAx val="-700372448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-778505792"/>
+        <c:axId val="-700372448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -5606,7 +5608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778507840"/>
+        <c:crossAx val="-700374496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6054,11 +6056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-702799840"/>
-        <c:axId val="-702797792"/>
+        <c:axId val="-772873888"/>
+        <c:axId val="-772870320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-702799840"/>
+        <c:axId val="-772873888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -6116,12 +6118,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702797792"/>
+        <c:crossAx val="-772870320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-702797792"/>
+        <c:axId val="-772870320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -6180,7 +6182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702799840"/>
+        <c:crossAx val="-772873888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6503,11 +6505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-702829744"/>
-        <c:axId val="-702827424"/>
+        <c:axId val="-723677520"/>
+        <c:axId val="-723675744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-702829744"/>
+        <c:axId val="-723677520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,12 +6566,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702827424"/>
+        <c:crossAx val="-723675744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-702827424"/>
+        <c:axId val="-723675744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6625,7 +6627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-702829744"/>
+        <c:crossAx val="-723677520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12398,7 +12400,7 @@
       <xdr:col>31</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12408,7 +12410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8420100" y="17983200"/>
-          <a:ext cx="5346700" cy="2743200"/>
+          <a:ext cx="5346700" cy="2755900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14246,8 +14248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF82" sqref="AF82"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/avgs by season.xlsx
+++ b/avgs by season.xlsx
@@ -959,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-724197680"/>
-        <c:axId val="-723613264"/>
+        <c:axId val="1071461872"/>
+        <c:axId val="1045885568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-724197680"/>
+        <c:axId val="1071461872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -1022,12 +1022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-723613264"/>
+        <c:crossAx val="1045885568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-723613264"/>
+        <c:axId val="1045885568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="88.0"/>
@@ -1085,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-724197680"/>
+        <c:crossAx val="1071461872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1515,11 +1515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-723626912"/>
-        <c:axId val="-778824048"/>
+        <c:axId val="1090822176"/>
+        <c:axId val="1090824496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-723626912"/>
+        <c:axId val="1090822176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -1578,12 +1578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-778824048"/>
+        <c:crossAx val="1090824496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-778824048"/>
+        <c:axId val="1090824496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-723626912"/>
+        <c:crossAx val="1090822176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1711,6 +1711,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1744,6 +1747,9 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2226,11 +2232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-700019952"/>
-        <c:axId val="-700193760"/>
+        <c:axId val="1044557088"/>
+        <c:axId val="1044599376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-700019952"/>
+        <c:axId val="1044557088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2275,6 +2281,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2289,12 +2298,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700193760"/>
+        <c:crossAx val="1044599376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-700193760"/>
+        <c:axId val="1044599376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.56"/>
@@ -2339,6 +2348,9 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2353,7 +2365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700019952"/>
+        <c:crossAx val="1044557088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2389,7 +2401,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2940,11 +2956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-699902736"/>
-        <c:axId val="-699900688"/>
+        <c:axId val="1071307328"/>
+        <c:axId val="1071300496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-699902736"/>
+        <c:axId val="1071307328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -3003,12 +3019,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-699900688"/>
+        <c:crossAx val="1071300496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-699900688"/>
+        <c:axId val="1071300496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75.0"/>
@@ -3067,7 +3083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-699902736"/>
+        <c:crossAx val="1071307328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3484,11 +3500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-700339904"/>
-        <c:axId val="-700392080"/>
+        <c:axId val="1090742880"/>
+        <c:axId val="1090556880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-700339904"/>
+        <c:axId val="1090742880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="118.0"/>
@@ -3546,12 +3562,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700392080"/>
+        <c:crossAx val="1090556880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-700392080"/>
+        <c:axId val="1090556880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.24"/>
@@ -3609,7 +3625,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700339904"/>
+        <c:crossAx val="1090742880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4196,11 +4212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-772948912"/>
-        <c:axId val="-772946864"/>
+        <c:axId val="1090685104"/>
+        <c:axId val="1090687152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-772948912"/>
+        <c:axId val="1090685104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4258,12 +4274,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772946864"/>
+        <c:crossAx val="1090687152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-772946864"/>
+        <c:axId val="1090687152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85.0"/>
@@ -4320,7 +4336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772948912"/>
+        <c:crossAx val="1090685104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4769,11 +4785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-773181344"/>
-        <c:axId val="-773179296"/>
+        <c:axId val="1090797344"/>
+        <c:axId val="1090798976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-773181344"/>
+        <c:axId val="1090797344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4832,12 +4848,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773179296"/>
+        <c:crossAx val="1090798976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-773179296"/>
+        <c:axId val="1090798976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -4896,7 +4912,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-773181344"/>
+        <c:crossAx val="1090797344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5483,11 +5499,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-700374496"/>
-        <c:axId val="-700372448"/>
+        <c:axId val="1071438128"/>
+        <c:axId val="1071440176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-700374496"/>
+        <c:axId val="1071438128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5545,12 +5561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700372448"/>
+        <c:crossAx val="1071440176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-700372448"/>
+        <c:axId val="1071440176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -5608,7 +5624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-700374496"/>
+        <c:crossAx val="1071438128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6056,11 +6072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-772873888"/>
-        <c:axId val="-772870320"/>
+        <c:axId val="1072391616"/>
+        <c:axId val="1072010992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-772873888"/>
+        <c:axId val="1072391616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -6082,6 +6098,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6118,12 +6135,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772870320"/>
+        <c:crossAx val="1072010992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-772870320"/>
+        <c:axId val="1072010992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -6182,7 +6199,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-772873888"/>
+        <c:crossAx val="1072391616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6505,11 +6522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-723677520"/>
-        <c:axId val="-723675744"/>
+        <c:axId val="1071622448"/>
+        <c:axId val="1071624496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-723677520"/>
+        <c:axId val="1071622448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6566,12 +6583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-723675744"/>
+        <c:crossAx val="1071624496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-723675744"/>
+        <c:axId val="1071624496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6627,7 +6644,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-723677520"/>
+        <c:crossAx val="1071622448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14248,8 +14265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AF77" sqref="AF77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/avgs by season.xlsx
+++ b/avgs by season.xlsx
@@ -959,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1071461872"/>
-        <c:axId val="1045885568"/>
+        <c:axId val="1163541440"/>
+        <c:axId val="1163519600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1071461872"/>
+        <c:axId val="1163541440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -1022,12 +1022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045885568"/>
+        <c:crossAx val="1163519600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1045885568"/>
+        <c:axId val="1163519600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="88.0"/>
@@ -1085,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071461872"/>
+        <c:crossAx val="1163541440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,7 +1178,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1515,11 +1514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090822176"/>
-        <c:axId val="1090824496"/>
+        <c:axId val="1163293168"/>
+        <c:axId val="1163295488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090822176"/>
+        <c:axId val="1163293168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -1578,12 +1577,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090824496"/>
+        <c:crossAx val="1163295488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090824496"/>
+        <c:axId val="1163295488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090822176"/>
+        <c:crossAx val="1163293168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1686,6 +1685,541 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NBA 3PAR by season</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'baa nba'!$A$2:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>80.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'baa nba'!$AE$2:$AE$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>0.3368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.259</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2439</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.226</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2217</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2221</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1968</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1867</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1819</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1669</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1688</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1593</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1877</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1173</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.1047</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0871</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0814</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0757</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0742</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.057</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0529</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.0372</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.0348</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.0271</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.0256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.0261</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.0226</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.0309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1155239472"/>
+        <c:axId val="1155241648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1155239472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="118.0"/>
+          <c:min val="80.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1155241648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1155241648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1155239472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2232,11 +2766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1044557088"/>
-        <c:axId val="1044599376"/>
+        <c:axId val="1163533376"/>
+        <c:axId val="1163535424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1044557088"/>
+        <c:axId val="1163533376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2298,12 +2832,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1044599376"/>
+        <c:crossAx val="1163535424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1044599376"/>
+        <c:axId val="1163535424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.56"/>
@@ -2365,7 +2899,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1044557088"/>
+        <c:crossAx val="1163533376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2956,11 +3490,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1071307328"/>
-        <c:axId val="1071300496"/>
+        <c:axId val="1163471872"/>
+        <c:axId val="1163473920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1071307328"/>
+        <c:axId val="1163471872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -3019,12 +3553,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071300496"/>
+        <c:crossAx val="1163473920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1071300496"/>
+        <c:axId val="1163473920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75.0"/>
@@ -3083,7 +3617,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071307328"/>
+        <c:crossAx val="1163471872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3500,11 +4034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090742880"/>
-        <c:axId val="1090556880"/>
+        <c:axId val="1163468496"/>
+        <c:axId val="1163445408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090742880"/>
+        <c:axId val="1163468496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="118.0"/>
@@ -3526,6 +4060,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3562,12 +4097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090556880"/>
+        <c:crossAx val="1163445408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090556880"/>
+        <c:axId val="1163445408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.24"/>
@@ -3625,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090742880"/>
+        <c:crossAx val="1163468496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4212,11 +4747,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090685104"/>
-        <c:axId val="1090687152"/>
+        <c:axId val="1163412208"/>
+        <c:axId val="1163414256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090685104"/>
+        <c:axId val="1163412208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4238,6 +4773,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4274,12 +4810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090687152"/>
+        <c:crossAx val="1163414256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090687152"/>
+        <c:axId val="1163414256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85.0"/>
@@ -4336,7 +4872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090685104"/>
+        <c:crossAx val="1163412208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4785,11 +5321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1090797344"/>
-        <c:axId val="1090798976"/>
+        <c:axId val="1163409168"/>
+        <c:axId val="1163396736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1090797344"/>
+        <c:axId val="1163409168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4848,12 +5384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090798976"/>
+        <c:crossAx val="1163396736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1090798976"/>
+        <c:axId val="1163396736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -4912,7 +5448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1090797344"/>
+        <c:crossAx val="1163409168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5499,11 +6035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1071438128"/>
-        <c:axId val="1071440176"/>
+        <c:axId val="1163359840"/>
+        <c:axId val="1163361888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1071438128"/>
+        <c:axId val="1163359840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5561,12 +6097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071440176"/>
+        <c:crossAx val="1163361888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1071440176"/>
+        <c:axId val="1163361888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -5624,7 +6160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071438128"/>
+        <c:crossAx val="1163359840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6072,11 +6608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1072391616"/>
-        <c:axId val="1072010992"/>
+        <c:axId val="1163321824"/>
+        <c:axId val="1163323872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1072391616"/>
+        <c:axId val="1163321824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -6135,12 +6671,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1072010992"/>
+        <c:crossAx val="1163323872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1072010992"/>
+        <c:axId val="1163323872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -6199,7 +6735,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1072391616"/>
+        <c:crossAx val="1163321824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6293,7 +6829,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6522,11 +7057,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1071622448"/>
-        <c:axId val="1071624496"/>
+        <c:axId val="1155157168"/>
+        <c:axId val="1155167664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1071622448"/>
+        <c:axId val="1155157168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6583,12 +7118,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071624496"/>
+        <c:crossAx val="1155167664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1071624496"/>
+        <c:axId val="1155167664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6644,7 +7179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1071622448"/>
+        <c:crossAx val="1155157168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6735,6 +7270,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8126,6 +8701,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -12319,9 +13410,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -12409,13 +13500,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
+      <xdr:colOff>63499</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>1171222</xdr:colOff>
       <xdr:row>102</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -12426,8 +13517,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8420100" y="17983200"/>
-          <a:ext cx="5346700" cy="2755900"/>
+          <a:off x="8445499" y="17483667"/>
+          <a:ext cx="6371167" cy="2679700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12460,6 +13551,17 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>On True Shooting Percentage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t> and Hand Checking:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400"/>
+        </a:p>
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1400"/>
@@ -12651,16 +13753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>437446</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304801</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>183445</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12669,8 +13771,106 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6477000" y="22301200"/>
-          <a:ext cx="1663700" cy="800100"/>
+          <a:off x="5799668" y="21463001"/>
+          <a:ext cx="2365022" cy="1044222"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>95-97 higher</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. So otherwise, steady growth until "modern era", then plateau until 98, decline to lower level until 04 rule change, then plateau again, and increase recently.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19755</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>70555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>239889</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>169331</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="330199" y="23184555"/>
+          <a:ext cx="2802468" cy="691443"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12706,12 +13906,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>95-97 higher</a:t>
+            <a:t>3 outliers</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout</a:t>
+            <a:t> are the shortened years. Increase was independent of hand check removal, increases again 2013 onwards after a plateau</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12724,12 +13925,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.57778</cdr:x>
-      <cdr:y>0.61574</cdr:y>
+      <cdr:x>0.45234</cdr:x>
+      <cdr:y>0.48679</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.94167</cdr:x>
-      <cdr:y>0.88889</cdr:y>
+      <cdr:y>0.88319</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -12738,8 +13939,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2641600" y="1689100"/>
-          <a:ext cx="1663700" cy="749300"/>
+          <a:off x="2075744" y="1299633"/>
+          <a:ext cx="2245517" cy="1058333"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -12870,7 +14071,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout</a:t>
+            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. Gradual descent controlling for these from 85 to 04, then jump post rule changes, remains consistent until recent trends.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -12883,8 +14084,8 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.33444</cdr:x>
-      <cdr:y>0.19444</cdr:y>
+      <cdr:x>0.32391</cdr:x>
+      <cdr:y>0.19015</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.93378</cdr:x>
@@ -12897,8 +14098,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1282700" y="533400"/>
-          <a:ext cx="2298705" cy="1079500"/>
+          <a:off x="1244600" y="506589"/>
+          <a:ext cx="2343409" cy="1059841"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -13029,7 +14230,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> than anything else, but also that rebounds have gone up as FG% goes down with more threes while TS% remains the same. But the point is 60s/ early 70s rebound stats are inflated.</a:t>
+            <a:t> than anything else, but also that rebounds have gone up as FG% goes down with more threes while TS% remains the same. But the point is 60s/early 70s rebound stats are inflated.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -13347,7 +14548,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. Different from TS% because ORB% has gone down over time. So when comparing players efficiency across eras, using TS% is more accurate than ORTG.</a:t>
+            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. Different from TS% because ORB% has gone down over time. So when comparing efficiency across eras, using TS% is more accurate than ORTG.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -13360,12 +14561,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.07973</cdr:x>
-      <cdr:y>0.61111</cdr:y>
+      <cdr:x>0.08106</cdr:x>
+      <cdr:y>0.49022</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.59801</cdr:x>
-      <cdr:y>0.88426</cdr:y>
+      <cdr:x>0.61901</cdr:x>
+      <cdr:y>0.88663</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -13374,8 +14575,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="304800" y="1676400"/>
-          <a:ext cx="1981200" cy="749305"/>
+          <a:off x="310445" y="1308806"/>
+          <a:ext cx="2060222" cy="1058334"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -13502,11 +14703,11 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Explanations for this one would be nice. Rule changes? Priority changes (get back on D to stop transition</a:t>
+            <a:t>Explanations for this one would be nice. Rule changes? </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> threes)?</a:t>
+            <a:t>Small Ball (more emphasis on shooting, so TS% up, but ORB% down?) would be my conjecture.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -13678,8 +14879,8 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.49722</cdr:x>
-      <cdr:y>0.61111</cdr:y>
+      <cdr:x>0.44988</cdr:x>
+      <cdr:y>0.53151</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.93889</cdr:x>
@@ -13692,8 +14893,167 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2273300" y="1676400"/>
-          <a:ext cx="2019305" cy="749305"/>
+          <a:off x="2077156" y="1416050"/>
+          <a:ext cx="2257846" cy="939776"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>3pt% hasn't changed much, but</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0"/>
+            <a:t> taking more threes means more spacing, so 2pt/ts% go up. Or this is confounded by year again, or it means low% midrange go away and more 3pt instead.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08333</cdr:x>
+      <cdr:y>0.62037</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.51721</cdr:x>
+      <cdr:y>0.89352</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="382514" y="1652774"/>
+          <a:ext cx="1991680" cy="727720"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -13820,170 +15180,19 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>As the 3pt% graph shows, raw % hasn't change much, but</a:t>
+            <a:t>This graph could</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> taking more threes means more spacing, so 2pt and ts% go up.</a:t>
+            <a:t> be </a:t>
           </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08333</cdr:x>
-      <cdr:y>0.61111</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.39028</cdr:x>
-      <cdr:y>0.88426</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1"/>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="381001" y="1676400"/>
-          <a:ext cx="1403350" cy="749305"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>This graph is actually pretty garbage,</a:t>
+            <a:t>pretty misleading,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> as year is a confounding AF variable.</a:t>
+            <a:t> as year is a super confounding variable, but I think it makes sense.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -14265,8 +15474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF77" sqref="AF77"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14280,8 +15489,7 @@
     <col min="7" max="7" width="4.33203125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
     <col min="9" max="11" width="4.83203125" customWidth="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1"/>
-    <col min="13" max="13" width="4.83203125" customWidth="1"/>
+    <col min="12" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="7.1640625" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="16" width="6.83203125" customWidth="1"/>

--- a/avgs by season.xlsx
+++ b/avgs by season.xlsx
@@ -959,11 +959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163541440"/>
-        <c:axId val="1163519600"/>
+        <c:axId val="1161167584"/>
+        <c:axId val="1161169632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163541440"/>
+        <c:axId val="1161167584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -1022,12 +1022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163519600"/>
+        <c:crossAx val="1161169632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163519600"/>
+        <c:axId val="1161169632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="88.0"/>
@@ -1085,7 +1085,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163541440"/>
+        <c:crossAx val="1161167584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,6 +1178,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1514,11 +1515,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163293168"/>
-        <c:axId val="1163295488"/>
+        <c:axId val="1158083952"/>
+        <c:axId val="1158086272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163293168"/>
+        <c:axId val="1158083952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -1577,12 +1578,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163295488"/>
+        <c:crossAx val="1158086272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163295488"/>
+        <c:axId val="1158086272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1638,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163293168"/>
+        <c:crossAx val="1158083952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1728,6 +1729,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2050,11 +2052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1155239472"/>
-        <c:axId val="1155241648"/>
+        <c:axId val="1158098944"/>
+        <c:axId val="1158100992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1155239472"/>
+        <c:axId val="1158098944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="118.0"/>
@@ -2112,12 +2114,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155241648"/>
+        <c:crossAx val="1158100992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1155241648"/>
+        <c:axId val="1158100992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.35"/>
@@ -2174,7 +2176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155239472"/>
+        <c:crossAx val="1158098944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2766,11 +2768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163533376"/>
-        <c:axId val="1163535424"/>
+        <c:axId val="1161122032"/>
+        <c:axId val="1161148432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163533376"/>
+        <c:axId val="1161122032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -2832,12 +2834,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163535424"/>
+        <c:crossAx val="1161148432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163535424"/>
+        <c:axId val="1161148432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.56"/>
@@ -2899,7 +2901,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163533376"/>
+        <c:crossAx val="1161122032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3490,11 +3492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163471872"/>
-        <c:axId val="1163473920"/>
+        <c:axId val="1161046352"/>
+        <c:axId val="1161040320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163471872"/>
+        <c:axId val="1161046352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -3553,12 +3555,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163473920"/>
+        <c:crossAx val="1161040320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163473920"/>
+        <c:axId val="1161040320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="75.0"/>
@@ -3617,7 +3619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163471872"/>
+        <c:crossAx val="1161046352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4034,11 +4036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163468496"/>
-        <c:axId val="1163445408"/>
+        <c:axId val="1160976528"/>
+        <c:axId val="1160978576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163468496"/>
+        <c:axId val="1160976528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="118.0"/>
@@ -4097,12 +4099,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163445408"/>
+        <c:crossAx val="1160978576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163445408"/>
+        <c:axId val="1160978576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.24"/>
@@ -4160,7 +4162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163468496"/>
+        <c:crossAx val="1160976528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4747,11 +4749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163412208"/>
-        <c:axId val="1163414256"/>
+        <c:axId val="1158184784"/>
+        <c:axId val="1065758304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163412208"/>
+        <c:axId val="1158184784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -4810,12 +4812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163414256"/>
+        <c:crossAx val="1065758304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163414256"/>
+        <c:axId val="1065758304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="85.0"/>
@@ -4872,7 +4874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163412208"/>
+        <c:crossAx val="1158184784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5321,11 +5323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163409168"/>
-        <c:axId val="1163396736"/>
+        <c:axId val="1160835808"/>
+        <c:axId val="1160837856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163409168"/>
+        <c:axId val="1160835808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5384,12 +5386,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163396736"/>
+        <c:crossAx val="1160837856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163396736"/>
+        <c:axId val="1160837856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34.0"/>
@@ -5448,7 +5450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163409168"/>
+        <c:crossAx val="1160835808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6035,11 +6037,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163359840"/>
-        <c:axId val="1163361888"/>
+        <c:axId val="1158141216"/>
+        <c:axId val="1158143264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163359840"/>
+        <c:axId val="1158141216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -6097,12 +6099,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163361888"/>
+        <c:crossAx val="1158143264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163361888"/>
+        <c:axId val="1158143264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -6160,7 +6162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163359840"/>
+        <c:crossAx val="1158141216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6608,11 +6610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1163321824"/>
-        <c:axId val="1163323872"/>
+        <c:axId val="1162743616"/>
+        <c:axId val="1158152704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1163321824"/>
+        <c:axId val="1162743616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -6671,12 +6673,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163323872"/>
+        <c:crossAx val="1158152704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1163323872"/>
+        <c:axId val="1158152704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -6735,7 +6737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1163321824"/>
+        <c:crossAx val="1162743616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6829,6 +6831,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7057,11 +7060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1155157168"/>
-        <c:axId val="1155167664"/>
+        <c:axId val="1158111120"/>
+        <c:axId val="1158113168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1155157168"/>
+        <c:axId val="1158111120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7118,12 +7121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155167664"/>
+        <c:crossAx val="1158113168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1155167664"/>
+        <c:axId val="1158113168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7179,7 +7182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155157168"/>
+        <c:crossAx val="1158111120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13852,15 +13855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19755</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>70555</xdr:rowOff>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>239889</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>169331</xdr:rowOff>
+      <xdr:rowOff>98777</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13869,8 +13872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330199" y="23184555"/>
-          <a:ext cx="2802468" cy="691443"/>
+          <a:off x="395111" y="23353890"/>
+          <a:ext cx="2737556" cy="451554"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13906,11 +13909,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3 outliers</a:t>
+            <a:t>95-97 shortened</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> are the shortened years. Increase was independent of hand check removal, increases again 2013 onwards after a plateau</a:t>
+            <a:t>. Increase not bc of hand check , increases 2013+ after a plateau</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -14071,7 +14074,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. Gradual descent controlling for these from 85 to 04, then jump post rule changes, remains consistent until recent trends.</a:t>
+            <a:t> due to shortened 3pt line, 99 and 2012 lower due to lockout. Gradual ascent to modern era, descent from 85 to 04, then jump post rule changes, not enough evidence for post 2012 trends.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -14244,7 +14247,7 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.57778</cdr:x>
-      <cdr:y>0.60648</cdr:y>
+      <cdr:y>0.65387</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.94167</cdr:x>
@@ -14257,8 +14260,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2641600" y="1663700"/>
-          <a:ext cx="1663700" cy="749300"/>
+          <a:off x="2701128" y="1742017"/>
+          <a:ext cx="1701190" cy="601474"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -14880,7 +14883,7 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.44988</cdr:x>
-      <cdr:y>0.53151</cdr:y>
+      <cdr:y>0.56329</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.93889</cdr:x>
@@ -14893,8 +14896,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2077156" y="1416050"/>
-          <a:ext cx="2257846" cy="939776"/>
+          <a:off x="2108907" y="1500717"/>
+          <a:ext cx="2292338" cy="855109"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -15042,8 +15045,8 @@
       <cdr:y>0.62037</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.51721</cdr:x>
-      <cdr:y>0.89352</cdr:y>
+      <cdr:x>0.51992</cdr:x>
+      <cdr:y>0.8893</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -15052,8 +15055,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="382514" y="1652774"/>
-          <a:ext cx="1991680" cy="727720"/>
+          <a:off x="389569" y="1652775"/>
+          <a:ext cx="2041069" cy="716479"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -15192,7 +15195,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> as year is a super confounding variable, but I think it makes sense.</a:t>
+            <a:t> as year is a super confounding variable, but I think it makes sense - emphasis shift.</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -15474,8 +15477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15483,25 +15486,28 @@
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="4.5" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" customWidth="1"/>
-    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="11" width="4.83203125" customWidth="1"/>
-    <col min="12" max="13" width="5.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="8" width="4.33203125" customWidth="1"/>
+    <col min="9" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" customWidth="1"/>
     <col min="14" max="14" width="7.1640625" customWidth="1"/>
     <col min="15" max="15" width="6" customWidth="1"/>
     <col min="16" max="16" width="6.83203125" customWidth="1"/>
     <col min="17" max="17" width="7.1640625" customWidth="1"/>
     <col min="18" max="18" width="5.83203125" customWidth="1"/>
     <col min="19" max="20" width="6.83203125" customWidth="1"/>
-    <col min="21" max="23" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="5.83203125" customWidth="1"/>
+    <col min="22" max="22" width="6.83203125" customWidth="1"/>
+    <col min="23" max="23" width="6.5" customWidth="1"/>
     <col min="24" max="24" width="6.1640625" customWidth="1"/>
     <col min="25" max="25" width="6.83203125" customWidth="1"/>
     <col min="26" max="28" width="5.83203125" customWidth="1"/>
     <col min="29" max="29" width="7.33203125" customWidth="1"/>
-    <col min="30" max="30" width="6" customWidth="1"/>
+    <col min="30" max="30" width="6.5" customWidth="1"/>
     <col min="31" max="31" width="7.1640625" customWidth="1"/>
     <col min="32" max="32" width="16.6640625" customWidth="1"/>
   </cols>
